--- a/stock_predictions.xlsx
+++ b/stock_predictions.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B526"/>
+  <dimension ref="A1:B533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4653,6 +4653,62 @@
         <v>4.880000114440918</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B527" t="n">
+        <v>5.050000190734863</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B528" t="n">
+        <v>4.78000020980835</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B529" t="n">
+        <v>4.929999828338623</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B530" t="n">
+        <v>4.980000019073486</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="B531" t="n">
+        <v>4.840000152587891</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="B532" t="n">
+        <v>4.650000095367432</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B533" t="n">
+        <v>4.769999980926514</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4664,7 +4720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4691,299 +4747,310 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B2" t="n">
-        <v>5.050000190734863</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0496826171875</v>
+        <v>5.18635368347168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45446</v>
+        <v>45455</v>
       </c>
       <c r="B3" t="n">
-        <v>4.78000020980835</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="C3" t="n">
-        <v>4.145952701568604</v>
+        <v>5.143510341644287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45447</v>
+        <v>45456</v>
       </c>
       <c r="B4" t="n">
-        <v>4.929999828338623</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="C4" t="n">
-        <v>4.113409996032715</v>
+        <v>5.122618675231934</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45448</v>
+        <v>45457</v>
       </c>
       <c r="B5" t="n">
-        <v>4.980000019073486</v>
+        <v>4.429999828338623</v>
       </c>
       <c r="C5" t="n">
-        <v>4.112534046173096</v>
+        <v>5.104755401611328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45449</v>
+        <v>45460</v>
       </c>
       <c r="B6" t="n">
-        <v>4.840000152587891</v>
+        <v>4.289999961853027</v>
       </c>
       <c r="C6" t="n">
-        <v>4.146276473999023</v>
+        <v>4.994791507720947</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45450</v>
+        <v>45461</v>
       </c>
       <c r="B7" t="n">
-        <v>4.650000095367432</v>
+        <v>4.090000152587891</v>
       </c>
       <c r="C7" t="n">
-        <v>4.118531227111816</v>
+        <v>4.827754020690918</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45453</v>
+        <v>45463</v>
       </c>
       <c r="B8" t="n">
-        <v>4.769999980926514</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="C8" t="n">
-        <v>4.013230800628662</v>
+        <v>4.61985445022583</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45454</v>
+        <v>45464</v>
       </c>
       <c r="B9" t="n">
-        <v>4.650000095367432</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>3.990061283111572</v>
+        <v>4.475885391235352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45455</v>
+        <v>45467</v>
       </c>
       <c r="B10" t="n">
-        <v>4.650000095367432</v>
+        <v>3.980000019073486</v>
       </c>
       <c r="C10" t="n">
-        <v>3.962478637695312</v>
+        <v>4.400332450866699</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45456</v>
+        <v>45468</v>
       </c>
       <c r="B11" t="n">
-        <v>4.619999885559082</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="C11" t="n">
-        <v>3.946212768554688</v>
+        <v>4.371391296386719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45457</v>
+        <v>45469</v>
       </c>
       <c r="B12" t="n">
-        <v>4.429999828338623</v>
+        <v>3.980000019073486</v>
       </c>
       <c r="C12" t="n">
-        <v>3.930355072021484</v>
+        <v>4.337019920349121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45460</v>
+        <v>45470</v>
       </c>
       <c r="B13" t="n">
-        <v>4.289999961853027</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="C13" t="n">
-        <v>3.847334146499634</v>
+        <v>4.338543891906738</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45461</v>
+        <v>45471</v>
       </c>
       <c r="B14" t="n">
-        <v>4.090000152587891</v>
+        <v>3.950000047683716</v>
       </c>
       <c r="C14" t="n">
-        <v>3.730139255523682</v>
+        <v>4.354041576385498</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="B15" t="n">
-        <v>4.050000190734863</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="C15" t="n">
-        <v>3.585495471954346</v>
+        <v>4.341686248779297</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45464</v>
+        <v>45475</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3.940000057220459</v>
       </c>
       <c r="C16" t="n">
-        <v>3.489633798599243</v>
+        <v>4.290640354156494</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45467</v>
+        <v>45476</v>
       </c>
       <c r="B17" t="n">
-        <v>3.980000019073486</v>
+        <v>3.930000066757202</v>
       </c>
       <c r="C17" t="n">
-        <v>3.437670230865479</v>
+        <v>4.273194789886475</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45468</v>
+        <v>45478</v>
       </c>
       <c r="B18" t="n">
-        <v>3.920000076293945</v>
+        <v>4.190000057220459</v>
       </c>
       <c r="C18" t="n">
-        <v>3.414169788360596</v>
+        <v>4.275268077850342</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45469</v>
+        <v>45481</v>
       </c>
       <c r="B19" t="n">
-        <v>3.980000019073486</v>
+        <v>4.199999809265137</v>
       </c>
       <c r="C19" t="n">
-        <v>3.38442587852478</v>
+        <v>4.413368225097656</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45470</v>
+        <v>45482</v>
       </c>
       <c r="B20" t="n">
-        <v>3.990000009536743</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="C20" t="n">
-        <v>3.387604713439941</v>
+        <v>4.547872066497803</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45471</v>
+        <v>45483</v>
       </c>
       <c r="B21" t="n">
-        <v>3.950000047683716</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="C21" t="n">
-        <v>3.402838945388794</v>
+        <v>4.579089164733887</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45474</v>
+        <v>45484</v>
       </c>
       <c r="B22" t="n">
-        <v>3.890000104904175</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="C22" t="n">
-        <v>3.397958517074585</v>
+        <v>5.037875652313232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45475</v>
+        <v>45485</v>
       </c>
       <c r="B23" t="n">
-        <v>3.940000057220459</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C23" t="n">
-        <v>3.367431402206421</v>
+        <v>5.628244876861572</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45476</v>
+        <v>45488</v>
       </c>
       <c r="B24" t="n">
-        <v>3.930000066757202</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="C24" t="n">
-        <v>3.366974115371704</v>
+        <v>6.431576728820801</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45478</v>
+        <v>45489</v>
       </c>
       <c r="B25" t="n">
-        <v>4.190000057220459</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="C25" t="n">
-        <v>3.377119779586792</v>
+        <v>6.552490234375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="B26" t="n">
-        <v>4.199999809265137</v>
+        <v>5.489999771118164</v>
       </c>
       <c r="C26" t="n">
-        <v>3.488169193267822</v>
+        <v>6.454903602600098</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B27" t="n">
-        <v>4.139999866485596</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>3.581703186035156</v>
+        <v>6.174613952636719</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45483</v>
+        <v>45492</v>
       </c>
       <c r="B28" t="n">
-        <v>5.070000171661377</v>
+        <v>4.929999828338623</v>
       </c>
       <c r="C28" t="n">
-        <v>3.59730863571167</v>
+        <v>5.729662418365479</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.809999942779541</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.443531036376953</v>
       </c>
     </row>
   </sheetData>
@@ -5019,82 +5086,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45484</v>
+        <v>45496</v>
       </c>
       <c r="B2" t="n">
-        <v>3.946850061416626</v>
+        <v>5.322022438049316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45485</v>
+        <v>45497</v>
       </c>
       <c r="B3" t="n">
-        <v>3.787816524505615</v>
+        <v>5.605907917022705</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45486</v>
+        <v>45498</v>
       </c>
       <c r="B4" t="n">
-        <v>3.483283519744873</v>
+        <v>6.066304683685303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45487</v>
+        <v>45499</v>
       </c>
       <c r="B5" t="n">
-        <v>3.189979076385498</v>
+        <v>6.598693370819092</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45488</v>
+        <v>45500</v>
       </c>
       <c r="B6" t="n">
-        <v>2.941165924072266</v>
+        <v>7.174046993255615</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45489</v>
+        <v>45501</v>
       </c>
       <c r="B7" t="n">
-        <v>2.733304738998413</v>
+        <v>7.79296875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45490</v>
+        <v>45502</v>
       </c>
       <c r="B8" t="n">
-        <v>2.55505633354187</v>
+        <v>8.472911834716797</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45491</v>
+        <v>45503</v>
       </c>
       <c r="B9" t="n">
-        <v>2.396045446395874</v>
+        <v>9.245705604553223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45492</v>
+        <v>45504</v>
       </c>
       <c r="B10" t="n">
-        <v>2.249773502349854</v>
+        <v>10.15748691558838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45493</v>
+        <v>45505</v>
       </c>
       <c r="B11" t="n">
-        <v>2.114039421081543</v>
+        <v>11.27106952667236</v>
       </c>
     </row>
   </sheetData>
